--- a/Assets/DataTable/XlsFile/PatternTable.xlsx
+++ b/Assets/DataTable/XlsFile/PatternTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kk/Desktop/Project/Coly/Funkeln/Assets/DataTable/XlsFile/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF4092E2-7651-6C4D-B386-5891DB8830A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B0F245-B745-2948-B060-D8FC54B481A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12580" xr2:uid="{D619A46B-5F8A-44B9-8AF2-7A1D5277085C}"/>
   </bookViews>
@@ -492,14 +492,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{928A6330-9269-4BC2-B3AE-DE56705CC877}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="8" max="8" width="15.6640625" customWidth="1"/>
@@ -580,6 +581,41 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>8102000</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/DataTable/XlsFile/PatternTable.xlsx
+++ b/Assets/DataTable/XlsFile/PatternTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kk/Desktop/Project/Coly/Funkeln/Assets/DataTable/XlsFile/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B0F245-B745-2948-B060-D8FC54B481A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB75213-4FA8-F84F-B68F-16A3E794D67D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12580" xr2:uid="{D619A46B-5F8A-44B9-8AF2-7A1D5277085C}"/>
   </bookViews>
@@ -492,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{928A6330-9269-4BC2-B3AE-DE56705CC877}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -583,7 +583,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>8102000</v>
+        <v>8101000</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -604,7 +604,7 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -613,6 +613,76 @@
         <v>1</v>
       </c>
       <c r="K3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>8102000</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>8103000</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
         <v>1</v>
       </c>
     </row>

--- a/Assets/DataTable/XlsFile/PatternTable.xlsx
+++ b/Assets/DataTable/XlsFile/PatternTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kk/Desktop/Project/Coly/Funkeln/Assets/DataTable/XlsFile/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB75213-4FA8-F84F-B68F-16A3E794D67D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D6EF803-6003-864F-9853-3A1C55A4AD63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12580" xr2:uid="{D619A46B-5F8A-44B9-8AF2-7A1D5277085C}"/>
   </bookViews>
@@ -492,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{928A6330-9269-4BC2-B3AE-DE56705CC877}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -686,6 +686,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>8104000</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/DataTable/XlsFile/PatternTable.xlsx
+++ b/Assets/DataTable/XlsFile/PatternTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kk/Desktop/Project/Coly/Funkeln/Assets/DataTable/XlsFile/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D6EF803-6003-864F-9853-3A1C55A4AD63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D269C566-2653-504F-B66F-C3A30D08957A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12580" xr2:uid="{D619A46B-5F8A-44B9-8AF2-7A1D5277085C}"/>
   </bookViews>
@@ -495,7 +495,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/Assets/DataTable/XlsFile/PatternTable.xlsx
+++ b/Assets/DataTable/XlsFile/PatternTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kk/Desktop/Project/Coly/Funkeln/Assets/DataTable/XlsFile/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kk/Desktop/Project/Coly/Assets/DataTable/XlsFile/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D6EF803-6003-864F-9853-3A1C55A4AD63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1DC203-2C26-BB47-B412-1DF90A738974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12580" xr2:uid="{D619A46B-5F8A-44B9-8AF2-7A1D5277085C}"/>
   </bookViews>
@@ -492,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{928A6330-9269-4BC2-B3AE-DE56705CC877}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -721,6 +721,111 @@
         <v>1</v>
       </c>
     </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>8105000</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>8106000</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8107000</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
